--- a/parameter_files/v1/entity_list.xlsx
+++ b/parameter_files/v1/entity_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{9B5B270A-A4B1-448C-A90D-73D5A1A125A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{944BBDA8-09C4-4FE4-A66D-919188DD7692}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{9B5B270A-A4B1-448C-A90D-73D5A1A125A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4734BE4-D30B-485B-B6E0-7B64F78F97F3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{48D6A96F-44BE-4B70-8FC3-216E0C53B229}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{48D6A96F-44BE-4B70-8FC3-216E0C53B229}"/>
   </bookViews>
   <sheets>
     <sheet name="N" sheetId="1" r:id="rId1"/>
@@ -189,6 +189,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -606,7 +610,7 @@
   <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
